--- a/StructureDefinition-Product-uc1.xlsx
+++ b/StructureDefinition-Product-uc1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="126">
   <si>
     <t>Path</t>
   </si>
@@ -217,7 +217,7 @@
 </t>
   </si>
   <si>
-    <t>Set of product codes</t>
+    <t>[R] Set of product codes</t>
   </si>
   <si>
     <t>Set of codes that are used to identify this product.</t>
@@ -230,7 +230,7 @@
 </t>
   </si>
   <si>
-    <t>Product code</t>
+    <t>[R] Product code</t>
   </si>
   <si>
     <t>Code identifying this product.
@@ -241,7 +241,7 @@
     <t>Product.codeSet.PCID</t>
   </si>
   <si>
-    <t>IDMP PCID</t>
+    <t>[O] IDMP PCID</t>
   </si>
   <si>
     <t>Code identifying the IDMP Packaged Medicinal Product.
@@ -251,7 +251,7 @@
     <t>Product.codeSet.MPID</t>
   </si>
   <si>
-    <t>IDMP MPID</t>
+    <t>[O] IDMP MPID</t>
   </si>
   <si>
     <t>Code identifying the IDMP Medicinal Product.
@@ -261,7 +261,7 @@
     <t>Product.codeSet.PhPID</t>
   </si>
   <si>
-    <t>IDMP PhP</t>
+    <t>[O] IDMP PhP</t>
   </si>
   <si>
     <t>Code identifying the IDMP Pharmaceutical Product.
@@ -271,7 +271,7 @@
     <t>Product.packageIdentifiers</t>
   </si>
   <si>
-    <t>Set of identifiers</t>
+    <t>[O] Set of identifiers</t>
   </si>
   <si>
     <t>Identifiers typically related to the supply chain management, but often used also for other purposes as the fight against falsified and counterfeit medicines; adverse event reporting, and so on.</t>
@@ -284,7 +284,7 @@
 </t>
   </si>
   <si>
-    <t>Data Carrier Identifier (e.g. GTIN)</t>
+    <t>[O] Data Carrier Identifier (e.g. GTIN)</t>
   </si>
   <si>
     <t>Set of identifiers associated to this instance of the product.
@@ -296,16 +296,19 @@
     <t>Product.packageIdentifiers.lotNumber</t>
   </si>
   <si>
+    <t>[O] Lot Number</t>
+  </si>
+  <si>
+    <t>The lot number of the Administrable Immunizing Agent, as assigned by the manufacturer.</t>
+  </si>
+  <si>
+    <t>Product.name</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Lot/Batch Number</t>
-  </si>
-  <si>
-    <t>The lot number of the Administrable Immunizing Agent, as assigned by the manufacturer.</t>
-  </si>
-  <si>
-    <t>Product.name</t>
+    <t>[RK] Product Name</t>
   </si>
   <si>
     <t>Product Name</t>
@@ -314,7 +317,7 @@
     <t>Product.composition</t>
   </si>
   <si>
-    <t>Composition</t>
+    <t>[M] Composition</t>
   </si>
   <si>
     <t>Composition of this product</t>
@@ -323,7 +326,7 @@
     <t>Product.composition.ingredient</t>
   </si>
   <si>
-    <t>Ingredient (e.g. antigen)</t>
+    <t>[M] Ingredient (e.g. antigen)</t>
   </si>
   <si>
     <t>Information about the ingredients composing this product</t>
@@ -332,7 +335,7 @@
     <t>Product.composition.ingredient.substanceName</t>
   </si>
   <si>
-    <t>Substance name</t>
+    <t>[M] Substance name</t>
   </si>
   <si>
     <t>Name of the substance / specified substance</t>
@@ -341,7 +344,7 @@
     <t>Product.composition.ingredient.substanceCode</t>
   </si>
   <si>
-    <t>Substance code</t>
+    <t>[RK] Substance code</t>
   </si>
   <si>
     <t xml:space="preserve">Code identifying this substance / specified substance. 
@@ -354,7 +357,7 @@
     <t>Product.composition.ingredient.ingredientRole</t>
   </si>
   <si>
-    <t>Ingredient role</t>
+    <t>[O] Ingredient role</t>
   </si>
   <si>
     <t>Role of this ingredient</t>
@@ -367,7 +370,7 @@
 </t>
   </si>
   <si>
-    <t>Substance quantity</t>
+    <t>[O] Substance quantity</t>
   </si>
   <si>
     <t>Quantity of this substance / specified substance. It can be per unit of presentation or per concentration.</t>
@@ -376,7 +379,7 @@
     <t>Product.composition.description</t>
   </si>
   <si>
-    <t>Composition (textual tescription)</t>
+    <t>[O] Composition (textual tescription)</t>
   </si>
   <si>
     <t>Textual description of the product composition</t>
@@ -389,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t>Market Authorization Holder (MAH)</t>
+    <t>[RK] Market Authorization Holder (MAH)</t>
   </si>
   <si>
     <t>the organisation that holds the authorisation for marketing a Medicinal Product in a region</t>
@@ -398,7 +401,7 @@
     <t>Product.manufacturer</t>
   </si>
   <si>
-    <t>manufacturer</t>
+    <t>[RK] manufacturer</t>
   </si>
   <si>
     <t>Organisation that holds the authorisation for the manufacturing process</t>
@@ -411,7 +414,7 @@
 </t>
   </si>
   <si>
-    <t>Expiry Date</t>
+    <t>[RK] Expiry Date</t>
   </si>
   <si>
     <t xml:space="preserve">Date, assigned to the Medicinal Immunizing Product by the manufacturer, after which the product should not be administered as product integrity cannot be guaranteed.  
@@ -1035,7 +1038,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>38</v>
@@ -1135,7 +1138,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>42</v>
@@ -1725,7 +1728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>86</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -1753,10 +1756,10 @@
         <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1827,7 +1830,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1841,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -1856,7 +1859,7 @@
         <v>91</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1907,7 +1910,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -1925,9 +1928,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1935,13 +1938,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -1953,10 +1956,10 @@
         <v>63</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2007,7 +2010,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2035,13 +2038,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -2053,10 +2056,10 @@
         <v>63</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2107,7 +2110,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2125,9 +2128,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2135,13 +2138,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -2153,10 +2156,10 @@
         <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2207,7 +2210,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2241,7 +2244,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -2253,10 +2256,10 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2307,7 +2310,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2327,7 +2330,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2353,10 +2356,10 @@
         <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2407,7 +2410,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2450,13 +2453,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2507,7 +2510,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2527,7 +2530,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2553,10 +2556,10 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2607,7 +2610,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -2627,7 +2630,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2641,7 +2644,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -2650,13 +2653,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2707,7 +2710,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -2727,7 +2730,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2741,7 +2744,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -2750,13 +2753,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2807,7 +2810,7 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -2827,7 +2830,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2841,7 +2844,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
@@ -2850,13 +2853,13 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2907,7 +2910,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
